--- a/Asset/Count Per Week.xlsx
+++ b/Asset/Count Per Week.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3B45E6-138B-41FD-9A1B-41617E5589BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A33541B-12AA-47CE-AFBF-D04F5ACC0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{530C9561-5482-4910-8F09-FC0CA7AB0ECD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>Anies</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Prabowo</t>
+  </si>
+  <si>
+    <t>Bulan 1</t>
+  </si>
+  <si>
+    <t>Bulan 2</t>
+  </si>
+  <si>
+    <t>Bulan 3</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF00F6F-D069-49BA-85B0-3DCE880742E7}">
-  <dimension ref="B4:O13"/>
+  <dimension ref="B4:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G15" sqref="G15:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +779,149 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>845</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>890</v>
+      </c>
+      <c r="I16">
+        <v>84</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>1143</v>
+      </c>
+      <c r="N16">
+        <v>283</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>945</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>1083</v>
+      </c>
+      <c r="I17">
+        <v>78</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>1288</v>
+      </c>
+      <c r="N17">
+        <v>165</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>836</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>968</v>
+      </c>
+      <c r="I18">
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>1139</v>
+      </c>
+      <c r="N18">
+        <v>306</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
